--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p9/p9_analysis.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p9/p9_analysis.xlsx
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6379,10 +6379,10 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.1469861839480328</v>
       </c>
     </row>
     <row r="6">
@@ -6532,10 +6532,10 @@
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.2020305089104421</v>
       </c>
     </row>
     <row r="15">
